--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucy-my.sharepoint.com/personal/ckasou01_ucy_ac_cy/Documents/Documents/GitHub/public_html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3D261-F24A-44C4-AA64-83D7471DBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{DCC3D261-F24A-44C4-AA64-83D7471DBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5D91A2-5715-4A95-B72D-4A6F4A259FBA}"/>
   <bookViews>
-    <workbookView xWindow="-21192" yWindow="2040" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="8" xr2:uid="{588B169E-8F02-4C27-9052-632775C72CE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="10" xr2:uid="{588B169E-8F02-4C27-9052-632775C72CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="T1-User" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="T1-Arithmetic Question" sheetId="10" r:id="rId7"/>
     <sheet name="T1-Multiple Choice Question" sheetId="11" r:id="rId8"/>
     <sheet name="T1-Multiple Choice Answer" sheetId="12" r:id="rId9"/>
+    <sheet name="T1-Log" sheetId="13" r:id="rId10"/>
+    <sheet name="T1-Questionnaire Log" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
   <si>
     <t>[User ID]</t>
   </si>
@@ -258,13 +260,34 @@
   </si>
   <si>
     <t>Available answers for question</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>T1-User</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description about an action made from a user </t>
+  </si>
+  <si>
+    <t>ID of the questionnaire in which the action was made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID of the user that made the action </t>
+  </si>
+  <si>
+    <t>Description about an action made at a questionnaire from a user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +304,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -314,11 +353,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92986111-E676-49AE-95BF-9CAAC95E9DAF}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -647,7 +690,175 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6469A289-2A2C-456B-9AC2-749456748F60}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -658,126 +869,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F3E26-AD54-4D7F-96D9-3CE9BA8CF19E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -790,7 +960,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -867,7 +1037,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -966,7 +1136,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1120,7 +1290,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1343,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,7 +1407,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DB3466-CCFC-4651-BB01-CA78DFDC20F7}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
